--- a/files/Doc/Missing_343F_shift_AMD.xlsx
+++ b/files/Doc/Missing_343F_shift_AMD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45" count="45">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20" count="20">
   <x:si>
     <x:t>employee_number</x:t>
   </x:si>
@@ -46,10 +46,10 @@
     <x:t>employee_type</x:t>
   </x:si>
   <x:si>
-    <x:t>G7732</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MR.  CHAYAKORN  REUNGBUBPHA   </x:t>
+    <x:t>T2109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MR.  NONTAWAT  YOSNAK         </x:t>
   </x:si>
   <x:si>
     <x:t>M</x:t>
@@ -62,9 +62,6 @@
   </x:si>
   <x:si>
     <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>H</x:t>
   </x:si>
   <x:si>
     <x:t>AMD</x:t>
@@ -488,13 +485,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="s">
+      <x:c r="J2" s="0" t="s">
         <x:v>17</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>18</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
